--- a/hourly datasets/cap_gen_year-3final.xlsx
+++ b/hourly datasets/cap_gen_year-3final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.0864008109590411</v>
+        <v>0.07864021833927641</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.000105282766160526</v>
+        <v>0.002790286388504313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003250866933158291</v>
+        <v>0.0005743104619665537</v>
       </c>
       <c r="D3" t="n">
-        <v>2.000232218073966</v>
+        <v>4.595127889600246</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09262129053626704</v>
+        <v>0.1333466998933395</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.006476971286682393</v>
+        <v>0.001664653736632393</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006266405754361342</v>
+        <v>0.003915919040376232</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08629552819288058</v>
+        <v>0.08143050472778073</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003605296552941561</v>
+        <v>0.00714206969923574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004270331528415296</v>
+        <v>0.000877610836093067</v>
       </c>
       <c r="D4" t="n">
-        <v>3.919855753668072</v>
+        <v>8.955686613748574</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1504609698994693</v>
+        <v>0.01523070348952278</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.004764518515216066</v>
+        <v>0.005421977557085551</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01197511162109919</v>
+        <v>0.00886216184138593</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09000610751198267</v>
+        <v>0.08578228803851215</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0106056083687404</v>
+        <v>0.02213873915404137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004416707593663615</v>
+        <v>0.002018334901833575</v>
       </c>
       <c r="D5" t="n">
-        <v>3.247986015354463</v>
+        <v>9.999285662435932</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2980862150707353</v>
+        <v>0.002179927683174303</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002348711847500743</v>
+        <v>0.01818286015829314</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01844672574447553</v>
+        <v>0.0260946181497896</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09700641932778151</v>
+        <v>0.1007789574933178</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01926801239899143</v>
+        <v>0.03082896980668155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006001344638062852</v>
+        <v>0.007914611046472893</v>
       </c>
       <c r="D6" t="n">
-        <v>2.516740974612253</v>
+        <v>7.576590835605277</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5897768412704179</v>
+        <v>0.0952316738438202</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008632040701403186</v>
+        <v>0.01531657826283598</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02802753123353375</v>
+        <v>0.0463413613505271</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1056688233580325</v>
+        <v>0.109469188145958</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01799581565907147</v>
+        <v>0.04417479254635513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003393390390333342</v>
+        <v>0.00286941297376671</v>
       </c>
       <c r="D7" t="n">
-        <v>2.272118461788434</v>
+        <v>7.941437331210773</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5751662320617785</v>
+        <v>0.07578565797480116</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01261221036787358</v>
+        <v>0.03855083300267313</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02123607998008225</v>
+        <v>0.04979875209003713</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1043966266181126</v>
+        <v>0.1228150108856315</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01470215321595276</v>
+        <v>0.05555958641301837</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005335023812083606</v>
+        <v>0.005181237441590949</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9550262572078181</v>
+        <v>3.95977878534642</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03730384833183172</v>
+        <v>2.627365737550455e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02100017139693016</v>
+        <v>0.04540452098126288</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01952662371848104</v>
+        <v>0.06571465184477385</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1011029641749939</v>
+        <v>0.1341998047522948</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00983625537334698</v>
+        <v>0.03855920046625558</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001883728149028982</v>
+        <v>0.002422822441008401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6289372429711929</v>
+        <v>3.06567605865373</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0512253958776195</v>
+        <v>1.69538628801275e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01000651121515032</v>
+        <v>0.03381054318263724</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01102668079029784</v>
+        <v>0.04330785774987393</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09623706633238809</v>
+        <v>0.117199418805532</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0864008109590411</v>
+        <v>-0.07864021833927641</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001499593128579739</v>
+        <v>0.0004772854001024698</v>
       </c>
       <c r="D10" t="n">
-        <v>-88.46003087917458</v>
+        <v>-180.756875163337</v>
       </c>
       <c r="E10" t="n">
-        <v>3.247030407710879e-23</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08934000535724827</v>
+        <v>-0.07957568494576608</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08346161656083391</v>
+        <v>-0.07770475173278674</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02692809171160836</v>
+        <v>-0.02528436957823028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001621771688213963</v>
+        <v>0.0005297220668395006</v>
       </c>
       <c r="D11" t="n">
-        <v>-24.52545427236637</v>
+        <v>-53.02536893805158</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01341192390565898</v>
+        <v>2.260327508692989e-34</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0301067545878994</v>
+        <v>-0.02632261053529018</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02374942883531732</v>
+        <v>-0.02424612862117038</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05947271924743275</v>
+        <v>0.05335584876104613</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02116925862172132</v>
+        <v>-0.02207324632087784</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001608241495392154</v>
+        <v>0.0005390108554304635</v>
       </c>
       <c r="D12" t="n">
-        <v>-21.11810610381859</v>
+        <v>-44.74418318218139</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03685690682493864</v>
+        <v>3.30842210592245e-94</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02432140306497481</v>
+        <v>-0.02312969342440312</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01801711417846784</v>
+        <v>-0.02101679921735257</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06523155233731978</v>
+        <v>0.05656697201839857</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01383293290577381</v>
+        <v>-0.01475662014452118</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001581626145694616</v>
+        <v>0.0005206601597742679</v>
       </c>
       <c r="D13" t="n">
-        <v>-14.81372046476404</v>
+        <v>-30.48551033381299</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02758139123454812</v>
+        <v>2.192194724406482e-38</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01693291105556393</v>
+        <v>-0.01577710009191998</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01073295475598368</v>
+        <v>-0.01373614019712238</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0725678780532673</v>
+        <v>0.06388359819475524</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01131096581260627</v>
+        <v>-0.01259489442254944</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001531898278237907</v>
+        <v>0.0004923706308137685</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.74883242328643</v>
+        <v>-26.47084424036932</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01570006987907065</v>
+        <v>1.476906370162135e-32</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01431347706448831</v>
+        <v>-0.013559927382606</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.008308454560724229</v>
+        <v>-0.01162986146249289</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07508984514643484</v>
+        <v>0.06604532391672696</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.008795472383179188</v>
+        <v>-0.01006980655271567</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001500609310928681</v>
+        <v>0.0004760154619688421</v>
       </c>
       <c r="D15" t="n">
-        <v>-11.05037875316091</v>
+        <v>-22.91226578941292</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05899661078194544</v>
+        <v>4.780914164250201e-12</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01173665737189645</v>
+        <v>-0.01100278377058991</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.005854287394461929</v>
+        <v>-0.009136829334841438</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07760533857586191</v>
+        <v>0.06857041178656073</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.007681445371367421</v>
+        <v>-0.009011371494888183</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001463991896036153</v>
+        <v>0.0004621822896520263</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.846169849303831</v>
+        <v>-21.24708026785728</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03801893638013711</v>
+        <v>5.856497027947724e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01055086072396954</v>
+        <v>-0.009917236226995406</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.004812030018765298</v>
+        <v>-0.008105506762780962</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07871936558767369</v>
+        <v>0.06962884684438822</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.006925536174487798</v>
+        <v>-0.007672607432653313</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001512410152497582</v>
+        <v>0.000478690647335519</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.864696067975256</v>
+        <v>-17.04287283952657</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05976394542239354</v>
+        <v>2.955561672004521e-15</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.009889850871414257</v>
+        <v>-0.008610827994720332</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.00396122147756134</v>
+        <v>-0.006734386870586295</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07947527478455331</v>
+        <v>0.0709676109066231</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005717311351306454</v>
+        <v>-0.006567066406527942</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001535704833484475</v>
+        <v>0.0004917410679605937</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.151608901366253</v>
+        <v>-14.05210354292009</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06234124340277786</v>
+        <v>0.09602366859044012</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.008727283520012358</v>
+        <v>-0.00753086541445417</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.002707339182600551</v>
+        <v>-0.005603267398601714</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08068349960773465</v>
+        <v>0.07207315193274846</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.004418922989795944</v>
+        <v>-0.005884249255800927</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001547167860002228</v>
+        <v>0.0004882398146445412</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.853822865544688</v>
+        <v>-12.76769607653884</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09173765871260241</v>
+        <v>5.476779481049499e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.007451363194167887</v>
+        <v>-0.006841185976649181</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.001386482785424002</v>
+        <v>-0.004927312534952672</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08198188796924516</v>
+        <v>0.07275596908347548</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002583752156762838</v>
+        <v>-0.004123382639533157</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001550736940115863</v>
+        <v>0.0004875983740595253</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.887450641257488</v>
+        <v>-8.946826313571037</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07841047803427942</v>
+        <v>8.901684433678456e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.005623187525681576</v>
+        <v>-0.005079062147106114</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0004556832121559006</v>
+        <v>-0.003167703131960201</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08381705880227827</v>
+        <v>0.07451683569974325</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.001093268012657826</v>
+        <v>-0.002526589371729434</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001563628990854261</v>
+        <v>0.0004959747498092431</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.967362113272421</v>
+        <v>-4.285111563677738</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05666416728810351</v>
+        <v>0.001841670178357758</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.004157971512723574</v>
+        <v>-0.00349868637210897</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001971435487407922</v>
+        <v>-0.001554492371349896</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08530754294638328</v>
+        <v>0.07611362896754698</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0006550241938861431</v>
+        <v>-0.001888662015962948</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001560898048847616</v>
+        <v>0.0004909196598288164</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.541535486810427</v>
+        <v>-3.9840531426137</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0662584377210879</v>
+        <v>0.02692140366197822</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.003714374773224567</v>
+        <v>-0.002850851131276916</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002404326385452281</v>
+        <v>-0.0009264729006489799</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08574578676515496</v>
+        <v>0.07675155632331346</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0004102779070373667</v>
+        <v>-0.001652296727431641</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001557279152957074</v>
+        <v>0.0004858294716847446</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.00980331982066</v>
+        <v>-3.620530306182416</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1340442894956065</v>
+        <v>0.08192424770816741</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.003462535328181535</v>
+        <v>-0.002604509105047757</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0026419795141068</v>
+        <v>-0.0007000843498155248</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08599053305200374</v>
+        <v>0.07698792161184477</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-7.72123094811695e-06</v>
+        <v>-0.0019477020503343</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00153153228192887</v>
+        <v>0.0004669545954484295</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.335033420037442</v>
+        <v>-5.225296655668407</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1851076746088484</v>
+        <v>0.001185934275919742</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.003009514648106584</v>
+        <v>-0.002862920129473194</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002994072186210351</v>
+        <v>-0.001032483971195406</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08639308972809299</v>
+        <v>0.07669251628894211</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.903493354649917e-05</v>
+        <v>-0.0005962747627451024</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001526607719941627</v>
+        <v>0.00045065996068595</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.230685225201264</v>
+        <v>-3.048533353433683</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1690793499160431</v>
+        <v>0.05043370619115831</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003021177125402205</v>
+        <v>-0.001479555788033372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002963107258309206</v>
+        <v>0.0002870062625431672</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0863717760254946</v>
+        <v>0.07804394357653131</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009385950338711847</v>
+        <v>0.03770415002800084</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001690132218567886</v>
+        <v>0.002749019684570122</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5169924851670413</v>
+        <v>2.462502261301685</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03575979826515752</v>
+        <v>5.171865815579302e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>0.017164159213253</v>
+        <v>0.03231615623922091</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0109797925552299</v>
+        <v>0.04309214381678075</v>
       </c>
       <c r="H26" t="n">
-        <v>0.09578676129775296</v>
+        <v>0.1163443683672772</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-3final.xlsx
+++ b/hourly datasets/cap_gen_year-3final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.07864021833927641</v>
+        <v>0.07807435775272227</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002790286388504313</v>
+        <v>0.002550231741379526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005743104619665537</v>
+        <v>0.0005770607297149498</v>
       </c>
       <c r="D3" t="n">
-        <v>4.595127889600246</v>
+        <v>4.322205938526587</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1333466998933395</v>
+        <v>0.003858838165102383</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001664653736632393</v>
+        <v>0.001419208373773843</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003915919040376232</v>
+        <v>0.003681255108985208</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08143050472778073</v>
+        <v>0.0806245894941018</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00714206969923574</v>
+        <v>0.006402437435215191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000877610836093067</v>
+        <v>0.0008873347779848019</v>
       </c>
       <c r="D4" t="n">
-        <v>8.955686613748574</v>
+        <v>8.559690634266088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01523070348952278</v>
+        <v>0.04627087288039523</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005421977557085551</v>
+        <v>0.004663286357855111</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00886216184138593</v>
+        <v>0.008141588512575269</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08578228803851215</v>
+        <v>0.08447679518793746</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02213873915404137</v>
+        <v>0.01802899570375784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002018334901833575</v>
+        <v>0.002123635401249276</v>
       </c>
       <c r="D5" t="n">
-        <v>9.999285662435932</v>
+        <v>8.6326854005867</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002179927683174303</v>
+        <v>0.01453958950983802</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01818286015829314</v>
+        <v>0.01386673035364948</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0260946181497896</v>
+        <v>0.0221912610538662</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1007789574933178</v>
+        <v>0.09610335345648011</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03082896980668155</v>
+        <v>0.03637648102821858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007914611046472893</v>
+        <v>0.006527667907733545</v>
       </c>
       <c r="D6" t="n">
-        <v>7.576590835605277</v>
+        <v>8.617177514587361</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0952316738438202</v>
+        <v>0.1203074916955466</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01531657826283598</v>
+        <v>0.02358245448509261</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0463413613505271</v>
+        <v>0.04917050757134454</v>
       </c>
       <c r="H6" t="n">
-        <v>0.109469188145958</v>
+        <v>0.1144508387809409</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04417479254635513</v>
+        <v>0.05037823628575415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00286941297376671</v>
+        <v>0.004899624255944115</v>
       </c>
       <c r="D7" t="n">
-        <v>7.941437331210773</v>
+        <v>8.509929814513891</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07578565797480116</v>
+        <v>0.07517556397243629</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03855083300267313</v>
+        <v>0.04077512561078092</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04979875209003713</v>
+        <v>0.05998134696072739</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1228150108856315</v>
+        <v>0.1284525940384764</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05555958641301837</v>
+        <v>0.05555481132325125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005181237441590949</v>
+        <v>0.005128941574257457</v>
       </c>
       <c r="D8" t="n">
-        <v>3.95977878534642</v>
+        <v>4.10824024421899</v>
       </c>
       <c r="E8" t="n">
-        <v>2.627365737550455e-06</v>
+        <v>1.744690827312411e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04540452098126288</v>
+        <v>0.04550224428566744</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06571465184477385</v>
+        <v>0.06560737836083505</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1341998047522948</v>
+        <v>0.1336291690759735</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03855920046625558</v>
+        <v>0.03848374777059942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002422822441008401</v>
+        <v>0.002424942270991451</v>
       </c>
       <c r="D9" t="n">
-        <v>3.06567605865373</v>
+        <v>3.065833107229912</v>
       </c>
       <c r="E9" t="n">
-        <v>1.69538628801275e-10</v>
+        <v>7.701134539519979e-11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03381054318263724</v>
+        <v>0.03373093549854411</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04330785774987393</v>
+        <v>0.04323656004265473</v>
       </c>
       <c r="H9" t="n">
-        <v>0.117199418805532</v>
+        <v>0.1165581055233217</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.07864021833927641</v>
+        <v>-0.07807435775272227</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004772854001024698</v>
+        <v>0.0004814608186091561</v>
       </c>
       <c r="D10" t="n">
-        <v>-180.756875163337</v>
+        <v>-179.893109143649</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07957568494576608</v>
+        <v>-0.07901800836152463</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07770475173278674</v>
+        <v>-0.07713070714391992</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02528436957823028</v>
+        <v>-0.02522995330994932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005297220668395006</v>
+        <v>0.0005331753961685665</v>
       </c>
       <c r="D11" t="n">
-        <v>-53.02536893805158</v>
+        <v>-52.91238616003955</v>
       </c>
       <c r="E11" t="n">
-        <v>2.260327508692989e-34</v>
+        <v>5.904278648632532e-24</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02632261053529018</v>
+        <v>-0.02627496298980941</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02424612862117038</v>
+        <v>-0.02418494363008922</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05335584876104613</v>
+        <v>0.05284440444277295</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02207324632087784</v>
+        <v>-0.02206631173794094</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005390108554304635</v>
+        <v>0.0005426106270011633</v>
       </c>
       <c r="D12" t="n">
-        <v>-44.74418318218139</v>
+        <v>-44.64429168931681</v>
       </c>
       <c r="E12" t="n">
-        <v>3.30842210592245e-94</v>
+        <v>3.657850515183642e-108</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02312969342440312</v>
+        <v>-0.02312981464268135</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02101679921735257</v>
+        <v>-0.02100280883320053</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05656697201839857</v>
+        <v>0.05600804601478133</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01475662014452118</v>
+        <v>-0.01477979678513252</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005206601597742679</v>
+        <v>0.000524233161587597</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.48551033381299</v>
+        <v>-30.44228154959576</v>
       </c>
       <c r="E13" t="n">
-        <v>2.192194724406482e-38</v>
+        <v>3.4886683531633e-46</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01577710009191998</v>
+        <v>-0.01580728002347744</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01373614019712238</v>
+        <v>-0.0137523135467876</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06388359819475524</v>
+        <v>0.06329456096758976</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01259489442254944</v>
+        <v>-0.01269010477996179</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004923706308137685</v>
+        <v>0.000495596776181682</v>
       </c>
       <c r="D14" t="n">
-        <v>-26.47084424036932</v>
+        <v>-26.40345202153022</v>
       </c>
       <c r="E14" t="n">
-        <v>1.476906370162135e-32</v>
+        <v>6.61100038517082e-40</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.013559927382606</v>
+        <v>-0.01366146114672652</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01162986146249289</v>
+        <v>-0.01171874841319705</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06604532391672696</v>
+        <v>0.06538425297276049</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01006980655271567</v>
+        <v>-0.01013762637274872</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004760154619688421</v>
+        <v>0.0004791525914423517</v>
       </c>
       <c r="D15" t="n">
-        <v>-22.91226578941292</v>
+        <v>-22.84096561203439</v>
       </c>
       <c r="E15" t="n">
-        <v>4.780914164250201e-12</v>
+        <v>9.552009321129351e-17</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01100278377058991</v>
+        <v>-0.01107675251654427</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009136829334841438</v>
+        <v>-0.009198500228953166</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06857041178656073</v>
+        <v>0.06793673137997355</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.009011371494888183</v>
+        <v>-0.00916013033660472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004621822896520263</v>
+        <v>0.000465757889139835</v>
       </c>
       <c r="D16" t="n">
-        <v>-21.24708026785728</v>
+        <v>-21.33686086960994</v>
       </c>
       <c r="E16" t="n">
-        <v>5.856497027947724e-05</v>
+        <v>6.520194145044307e-09</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.009917236226995406</v>
+        <v>-0.01007300340239678</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.008105506762780962</v>
+        <v>-0.008247257270812668</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06962884684438822</v>
+        <v>0.06891422741611755</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.007672607432653313</v>
+        <v>-0.007799987663649632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000478690647335519</v>
+        <v>0.0004830068580347092</v>
       </c>
       <c r="D17" t="n">
-        <v>-17.04287283952657</v>
+        <v>-16.95247674739566</v>
       </c>
       <c r="E17" t="n">
-        <v>2.955561672004521e-15</v>
+        <v>2.475982704925386e-08</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.008610827994720332</v>
+        <v>-0.008746668153089226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.006734386870586295</v>
+        <v>-0.006853307174210036</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0709676109066231</v>
+        <v>0.07027437008907264</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006567066406527942</v>
+        <v>-0.006752045734565084</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004917410679605937</v>
+        <v>0.0004983002418247028</v>
       </c>
       <c r="D18" t="n">
-        <v>-14.05210354292009</v>
+        <v>-13.97588819910563</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09602366859044012</v>
+        <v>0.004718275685749024</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00753086541445417</v>
+        <v>-0.007728700889416244</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.005603267398601714</v>
+        <v>-0.005775390579713923</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07207315193274846</v>
+        <v>0.07132231201815718</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005884249255800927</v>
+        <v>-0.006143590457551317</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004882398146445412</v>
+        <v>0.0004962123840906216</v>
       </c>
       <c r="D19" t="n">
-        <v>-12.76769607653884</v>
+        <v>-12.82055320483872</v>
       </c>
       <c r="E19" t="n">
-        <v>5.476779481049499e-06</v>
+        <v>0.006295367026012721</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.006841185976649181</v>
+        <v>-0.007116153569833748</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.004927312534952672</v>
+        <v>-0.005171027345268886</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07275596908347548</v>
+        <v>0.07193076729517095</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.004123382639533157</v>
+        <v>-0.004333182618744377</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004875983740595253</v>
+        <v>0.0004939155313014687</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.946826313571037</v>
+        <v>-9.02156955627451</v>
       </c>
       <c r="E20" t="n">
-        <v>8.901684433678456e-06</v>
+        <v>0.01879990341189808</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.005079062147106114</v>
+        <v>-0.005301243908730894</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.003167703131960201</v>
+        <v>-0.00336512132875786</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07451683569974325</v>
+        <v>0.07374117513397789</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002526589371729434</v>
+        <v>-0.002823890664184099</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004959747498092431</v>
+        <v>0.0005025582848938303</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.285111563677738</v>
+        <v>-4.948373505056419</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001841670178357758</v>
+        <v>0.09771086797304865</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.00349868637210897</v>
+        <v>-0.003808891560058272</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.001554492371349896</v>
+        <v>-0.001838889768309925</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07611362896754698</v>
+        <v>0.07525046708853818</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.001888662015962948</v>
+        <v>-0.002108864082283351</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004909196598288164</v>
+        <v>0.0004979238740523838</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.9840531426137</v>
+        <v>-4.208424887594383</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02692140366197822</v>
+        <v>0.0833529662514023</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.002850851131276916</v>
+        <v>-0.00308478160366001</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0009264729006489799</v>
+        <v>-0.001132946560906693</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07675155632331346</v>
+        <v>0.07596549367043892</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001652296727431641</v>
+        <v>-0.001863377036594798</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004858294716847446</v>
+        <v>0.000491533437888948</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.620530306182416</v>
+        <v>-3.816217065390444</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08192424770816741</v>
+        <v>0.07595679088819235</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.002604509105047757</v>
+        <v>-0.002826769347418687</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0007000843498155248</v>
+        <v>-0.0008999847257709087</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07698792161184477</v>
+        <v>0.07621098071612747</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.0019477020503343</v>
+        <v>-0.002292728727060013</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004669545954484295</v>
+        <v>0.0004715563648919166</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.225296655668407</v>
+        <v>-5.567871059987613</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001185934275919742</v>
+        <v>0.04508871857762955</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.002862920129473194</v>
+        <v>-0.003216966454662359</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.001032483971195406</v>
+        <v>-0.001368490999457666</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07669251628894211</v>
+        <v>0.07578162902566225</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0005962747627451024</v>
+        <v>-0.0006745113101945359</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00045065996068595</v>
+        <v>0.0004563416415618704</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.048533353433683</v>
+        <v>-3.154855206149141</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05043370619115831</v>
+        <v>0.09470665540412795</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.001479555788033372</v>
+        <v>-0.001568928543591642</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002870062625431672</v>
+        <v>0.0002199059232025702</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07804394357653131</v>
+        <v>0.07739984644252773</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03770415002800084</v>
+        <v>0.03762869733233345</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002749019684570122</v>
+        <v>0.002753024321643567</v>
       </c>
       <c r="D26" t="n">
-        <v>2.462502261301685</v>
+        <v>2.463399026579046</v>
       </c>
       <c r="E26" t="n">
-        <v>5.171865815579302e-06</v>
+        <v>3.171901544109193e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03231615623922091</v>
+        <v>0.03223285435752049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04309214381678075</v>
+        <v>0.0430245403071464</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1163443683672772</v>
+        <v>0.1157030550850557</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-3final.xlsx
+++ b/hourly datasets/cap_gen_year-3final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,703 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.07807435775272227</v>
+        <v>0.1781080418836457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002550231741379526</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0005770607297149498</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.322205938526587</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.003858838165102383</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001419208373773843</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.003681255108985208</v>
-      </c>
+        <v>0.07058899002750421</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.0806245894941018</v>
+        <v>0.2486970319111499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006402437435215191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0008873347779848019</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.559690634266088</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.04627087288039523</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.004663286357855111</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.008141588512575269</v>
-      </c>
+        <v>0.07693882631749051</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.08447679518793746</v>
+        <v>0.2550468682011362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01802899570375784</v>
+        <v>0.05614959554175596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002123635401249276</v>
+        <v>0.006738009162266328</v>
       </c>
       <c r="D5" t="n">
-        <v>8.6326854005867</v>
+        <v>7.135234120588683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01453958950983802</v>
+        <v>0.06289788387063563</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01386673035364948</v>
+        <v>0.0429343898991582</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0221912610538662</v>
+        <v>0.06936480118435359</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09610335345648011</v>
+        <v>0.2342576374254017</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03637648102821858</v>
+        <v>0.0445788860416429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006527667907733545</v>
+        <v>0.004375017162711103</v>
       </c>
       <c r="D6" t="n">
-        <v>8.617177514587361</v>
+        <v>4.204150487819474</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1203074916955466</v>
+        <v>0.01169446533129717</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02358245448509261</v>
+        <v>0.03599615840500509</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04917050757134454</v>
+        <v>0.05316161367828127</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1144508387809409</v>
+        <v>0.2226869279252886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05037823628575415</v>
+        <v>0.03105901624575945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004899624255944115</v>
+        <v>0.002549527655467725</v>
       </c>
       <c r="D7" t="n">
-        <v>8.509929814513891</v>
+        <v>2.87024871960556</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07517556397243629</v>
+        <v>5.834141054664258e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04077512561078092</v>
+        <v>0.02605484780691302</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05998134696072739</v>
+        <v>0.03606318468460655</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1284525940384764</v>
+        <v>0.2091670581294052</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05555481132325125</v>
+        <v>0.03069747877418507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005128941574257457</v>
+        <v>0.002248601449523789</v>
       </c>
       <c r="D8" t="n">
-        <v>4.10824024421899</v>
+        <v>2.987261326340754</v>
       </c>
       <c r="E8" t="n">
-        <v>1.744690827312411e-06</v>
+        <v>1.454577115217653e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04550224428566744</v>
+        <v>0.02628345557953617</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06560737836083505</v>
+        <v>0.03511150196883392</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1336291690759735</v>
+        <v>0.2088055206578308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03848374777059942</v>
+        <v>0.01473750732722378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002424942270991451</v>
+        <v>0.00316946032756405</v>
       </c>
       <c r="D9" t="n">
-        <v>3.065833107229912</v>
+        <v>0.5718771831720996</v>
       </c>
       <c r="E9" t="n">
-        <v>7.701134539519979e-11</v>
+        <v>1.725714207387253e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03373093549854411</v>
+        <v>0.008517308096782722</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04323656004265473</v>
+        <v>0.02095770655766469</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1165581055233217</v>
+        <v>0.1928455492108695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.07807435775272227</v>
+        <v>0.004816582186824714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004814608186091561</v>
+        <v>0.0006382484190739872</v>
       </c>
       <c r="D10" t="n">
-        <v>-179.893109143649</v>
+        <v>0.2283180800513196</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3.453776652277943e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07901800836152463</v>
+        <v>0.003559353733559877</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07713070714391992</v>
+        <v>0.006073810640089486</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1829246240704704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02522995330994932</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005331753961685665</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-52.91238616003955</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.904278648632532e-24</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.02627496298980941</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.02418494363008922</v>
-      </c>
+        <v>0.02704152335898385</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05284440444277295</v>
+        <v>0.2051495652426296</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02206631173794094</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005426106270011633</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-44.64429168931681</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.657850515183642e-108</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.02312981464268135</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.02100280883320053</v>
-      </c>
+        <v>0.04219961075573563</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.05600804601478133</v>
+        <v>0.2203076526393813</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01477979678513252</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.000524233161587597</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-30.44228154959576</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.4886683531633e-46</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.01580728002347744</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.0137523135467876</v>
-      </c>
+        <v>0.04666631795797447</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06329456096758976</v>
+        <v>0.2247743598416202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01269010477996179</v>
+        <v>0.05053850039437755</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000495596776181682</v>
+        <v>0.008441938158508773</v>
       </c>
       <c r="D14" t="n">
-        <v>-26.40345202153022</v>
+        <v>9.165302859431334</v>
       </c>
       <c r="E14" t="n">
-        <v>6.61100038517082e-40</v>
+        <v>0.04264795890361529</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01366146114672652</v>
+        <v>0.03398316891401401</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01171874841319705</v>
+        <v>0.06709383187474115</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06538425297276049</v>
+        <v>0.2286465422780233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01013762637274872</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0004791525914423517</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-22.84096561203439</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.552009321129351e-17</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.01107675251654427</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.009198500228953166</v>
-      </c>
+        <v>0.0560432097225535</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.06793673137997355</v>
+        <v>0.2341512516061992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.00916013033660472</v>
+        <v>0.05970233885755934</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000465757889139835</v>
+        <v>0.009131294412683975</v>
       </c>
       <c r="D16" t="n">
-        <v>-21.33686086960994</v>
+        <v>9.910574369013931</v>
       </c>
       <c r="E16" t="n">
-        <v>6.520194145044307e-09</v>
+        <v>0.04488933727020817</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01007300340239678</v>
+        <v>0.0407141978734443</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.008247257270812668</v>
+        <v>0.07869047984167438</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06891422741611755</v>
+        <v>0.237810380741205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.007799987663649632</v>
+        <v>0.0627810647963892</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004830068580347092</v>
+        <v>0.008021768876150425</v>
       </c>
       <c r="D17" t="n">
-        <v>-16.95247674739566</v>
+        <v>10.23389973076422</v>
       </c>
       <c r="E17" t="n">
-        <v>2.475982704925386e-08</v>
+        <v>0.03900979718248433</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.008746668153089226</v>
+        <v>0.04704946523193966</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.006853307174210036</v>
+        <v>0.07851266436083867</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07027437008907264</v>
+        <v>0.2408891066800349</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006752045734565084</v>
+        <v>-0.1781080418836457</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004983002418247028</v>
+        <v>0.01026440375756782</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.97588819910563</v>
+        <v>-36.06576245392164</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004718275685749024</v>
+        <v>0.009187418517355108</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.007728700889416244</v>
+        <v>-0.1990231505261173</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.005775390579713923</v>
+        <v>-0.1571929332411741</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07132231201815718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006143590457551317</v>
+        <v>0.06207609670147838</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004962123840906216</v>
+        <v>0.007953687740433011</v>
       </c>
       <c r="D19" t="n">
-        <v>-12.82055320483872</v>
+        <v>10.12980285771379</v>
       </c>
       <c r="E19" t="n">
-        <v>0.006295367026012721</v>
+        <v>0.04480848987025728</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.007116153569833748</v>
+        <v>0.04647616689126297</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.005171027345268886</v>
+        <v>0.07767602651169371</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07193076729517095</v>
+        <v>0.2401841385851241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.004333182618744377</v>
+        <v>0.06318359958078527</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004939155313014687</v>
+        <v>0.008349573417436635</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.02156955627451</v>
+        <v>10.60910993858327</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01879990341189808</v>
+        <v>0.0457045144083684</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.005301243908730894</v>
+        <v>0.04680612303633321</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00336512132875786</v>
+        <v>0.07956107612523734</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07374117513397789</v>
+        <v>0.241291641464431</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002823890664184099</v>
+        <v>0.06540266621058387</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005025582848938303</v>
+        <v>0.008242109123242105</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.948373505056419</v>
+        <v>11.15184154029778</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09771086797304865</v>
+        <v>0.04606023555957348</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.003808891560058272</v>
+        <v>0.0492355127986603</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.001838889768309925</v>
+        <v>0.08156981962250735</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07525046708853818</v>
+        <v>0.2435107080942296</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.002108864082283351</v>
+        <v>0.06480481089007854</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004979238740523838</v>
+        <v>0.008117715446271972</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.208424887594383</v>
+        <v>10.73108431423214</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0833529662514023</v>
+        <v>0.04299308781163142</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.00308478160366001</v>
+        <v>0.04888623061427688</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.001132946560906693</v>
+        <v>0.08072339116588038</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07596549367043892</v>
+        <v>0.2429128527737243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001863377036594798</v>
+        <v>0.06688105417943029</v>
       </c>
       <c r="C23" t="n">
-        <v>0.000491533437888948</v>
+        <v>0.008040479397295972</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.816217065390444</v>
+        <v>10.89585321444989</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07595679088819235</v>
+        <v>0.04366054188670174</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.002826769347418687</v>
+        <v>0.05111422168637231</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0008999847257709087</v>
+        <v>0.08264788667248829</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07621098071612747</v>
+        <v>0.244989096063076</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002292728727060013</v>
+        <v>0.0671930565207324</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004715563648919166</v>
+        <v>0.007994162930204367</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.567871059987613</v>
+        <v>11.06730247078105</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04508871857762955</v>
+        <v>0.04819945046632091</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.003216966454662359</v>
+        <v>0.05151762983935251</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.001368490999457666</v>
+        <v>0.08286848320211231</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07578162902566225</v>
+        <v>0.2453010984043781</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0006745113101945359</v>
+        <v>0.06766418657512853</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004563416415618704</v>
+        <v>0.008066866918895719</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.154855206149141</v>
+        <v>11.28300119677329</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09470665540412795</v>
+        <v>0.05400017741185485</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.001568928543591642</v>
+        <v>0.05184575965287761</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002199059232025702</v>
+        <v>0.08348261349737936</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07739984644252773</v>
+        <v>0.2457722284587742</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.06787184014118362</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.00802816287316694</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11.28592197552466</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.06390932774373993</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05213118582920688</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.08361249445316037</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2459798820248293</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.07012267100642065</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.008220612803157121</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.92008090934375</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.05820567906761343</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05399834283165762</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.08624699918118366</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2482307128900664</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06874256131569685</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007984589053197041</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10.88201960765499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08593764102250959</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0530854215489846</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.08439970108240917</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2468506031993425</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.03762869733233345</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.002753024321643567</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.463399026579046</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.171901544109193e-06</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.03223285435752049</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0430245403071464</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1157030550850557</v>
+      <c r="B29" t="n">
+        <v>0.004286810191026556</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0006632997541790553</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1803182960155422</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.705566939553045e-05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00297993718311561</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.005593683198937594</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1823948520746723</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-3final.xlsx
+++ b/hourly datasets/cap_gen_year-3final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1781080418836457</v>
+        <v>0.1127464861192516</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07058899002750421</v>
+        <v>0.07426135796710345</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2486970319111499</v>
+        <v>0.1870078440863551</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07693882631749051</v>
+        <v>0.07989740725516165</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2550468682011362</v>
+        <v>0.1926438933744133</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05614959554175596</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.006738009162266328</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.135234120588683</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.06289788387063563</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0429343898991582</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.06936480118435359</v>
-      </c>
+        <v>0.05793317263531943</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.2342576374254017</v>
+        <v>0.1706796587545711</v>
       </c>
     </row>
     <row r="6">
@@ -564,25 +554,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0445788860416429</v>
+        <v>0.04473943535494208</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004375017162711103</v>
+        <v>0.005325043559503317</v>
       </c>
       <c r="D6" t="n">
-        <v>4.204150487819474</v>
+        <v>3.648885329716293</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01169446533129717</v>
+        <v>0.01345280638785308</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03599615840500509</v>
+        <v>0.03425518317390631</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05316161367828127</v>
+        <v>0.05522368753597827</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2226869279252886</v>
+        <v>0.1574859214741937</v>
       </c>
     </row>
     <row r="7">
@@ -592,25 +582,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03105901624575945</v>
+        <v>0.02903735774562823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002549527655467725</v>
+        <v>0.003044100755573473</v>
       </c>
       <c r="D7" t="n">
-        <v>2.87024871960556</v>
+        <v>2.139757338538166</v>
       </c>
       <c r="E7" t="n">
-        <v>5.834141054664258e-05</v>
+        <v>5.900886818307892e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02605484780691302</v>
+        <v>0.02306212863388198</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03606318468460655</v>
+        <v>0.03501258685737458</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2091670581294052</v>
+        <v>0.1417838438648799</v>
       </c>
     </row>
     <row r="8">
@@ -620,25 +610,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03069747877418507</v>
+        <v>0.02866960613684441</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002248601449523789</v>
+        <v>0.002732353517780752</v>
       </c>
       <c r="D8" t="n">
-        <v>2.987261326340754</v>
+        <v>2.210747649709623</v>
       </c>
       <c r="E8" t="n">
-        <v>1.454577115217653e-07</v>
+        <v>3.076690044233385e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02628345557953617</v>
+        <v>0.02330582168138613</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03511150196883392</v>
+        <v>0.03403339059230218</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2088055206578308</v>
+        <v>0.141416092256096</v>
       </c>
     </row>
     <row r="9">
@@ -648,25 +638,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01473750732722378</v>
+        <v>0.0138662000905528</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00316946032756405</v>
+        <v>0.003605075256054655</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5718771831720996</v>
+        <v>0.005206977931849108</v>
       </c>
       <c r="E9" t="n">
-        <v>1.725714207387253e-05</v>
+        <v>1.778910002200519e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008517308096782722</v>
+        <v>0.006790550059476552</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02095770655766469</v>
+        <v>0.02094185012162898</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1928455492108695</v>
+        <v>0.1266126862098044</v>
       </c>
     </row>
     <row r="10">
@@ -676,25 +666,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004816582186824714</v>
+        <v>1.859951780417363e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006382484190739872</v>
+        <v>0.001127331343166753</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2283180800513196</v>
+        <v>-1.00913892949151</v>
       </c>
       <c r="E10" t="n">
-        <v>3.453776652277943e-07</v>
+        <v>1.995100196980731e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003559353733559877</v>
+        <v>-0.002198755385376016</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006073810640089486</v>
+        <v>0.002235954420984398</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1829246240704704</v>
+        <v>0.1127650856370558</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +694,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02704152335898385</v>
+        <v>0.02657163319265903</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -712,7 +702,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.2051495652426296</v>
+        <v>0.1393181193119107</v>
       </c>
     </row>
     <row r="12">
@@ -722,7 +712,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04219961075573563</v>
+        <v>0.04287082235326538</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -730,7 +720,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.2203076526393813</v>
+        <v>0.155617308472517</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04666631795797447</v>
+        <v>0.0491633941321979</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -748,7 +738,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2247743598416202</v>
+        <v>0.1619098802514495</v>
       </c>
     </row>
     <row r="14">
@@ -758,25 +748,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05053850039437755</v>
+        <v>0.0514568738883066</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008441938158508773</v>
+        <v>0.008987261085764024</v>
       </c>
       <c r="D14" t="n">
-        <v>9.165302859431334</v>
+        <v>9.198863409012212</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04264795890361529</v>
+        <v>0.0444454659280662</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03398316891401401</v>
+        <v>0.03379007168371145</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06709383187474115</v>
+        <v>0.06912367609290182</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2286465422780233</v>
+        <v>0.1642033600075582</v>
       </c>
     </row>
     <row r="15">
@@ -786,7 +776,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0560432097225535</v>
+        <v>0.05828135157323943</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -794,7 +784,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2341512516061992</v>
+        <v>0.1710278376924911</v>
       </c>
     </row>
     <row r="16">
@@ -804,25 +794,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05970233885755934</v>
+        <v>0.0619259653860847</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009131294412683975</v>
+        <v>0.009099232169588472</v>
       </c>
       <c r="D16" t="n">
-        <v>9.910574369013931</v>
+        <v>9.907563843853747</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04488933727020817</v>
+        <v>0.04583561235697588</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0407141978734443</v>
+        <v>0.04404726587570973</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07869047984167438</v>
+        <v>0.07980466489645974</v>
       </c>
       <c r="H16" t="n">
-        <v>0.237810380741205</v>
+        <v>0.1746724515053363</v>
       </c>
     </row>
     <row r="17">
@@ -832,25 +822,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0627810647963892</v>
+        <v>0.06708972670187829</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008021768876150425</v>
+        <v>0.009059498303894638</v>
       </c>
       <c r="D17" t="n">
-        <v>10.23389973076422</v>
+        <v>10.28598447811154</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03900979718248433</v>
+        <v>0.03945756713915682</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04704946523193966</v>
+        <v>0.0492684602889722</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07851266436083867</v>
+        <v>0.08491099311478427</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2408891066800349</v>
+        <v>0.1798362128211299</v>
       </c>
     </row>
     <row r="18">
@@ -860,22 +850,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1781080418836457</v>
+        <v>-0.1127464861192516</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01026440375756782</v>
+        <v>0.01268551493633767</v>
       </c>
       <c r="D18" t="n">
-        <v>-36.06576245392164</v>
+        <v>-16.06863000417736</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009187418517355108</v>
+        <v>0.01260794727490581</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1990231505261173</v>
+        <v>-0.1376583015129513</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1571929332411741</v>
+        <v>-0.08783467072555183</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -888,25 +878,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06207609670147838</v>
+        <v>0.06296001873867402</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007953687740433011</v>
+        <v>0.008772607598267574</v>
       </c>
       <c r="D19" t="n">
-        <v>10.12980285771379</v>
+        <v>10.12573975635952</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04480848987025728</v>
+        <v>0.04611348190673749</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04647616689126297</v>
+        <v>0.04569548489236878</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07767602651169371</v>
+        <v>0.08022455258497924</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2401841385851241</v>
+        <v>0.1757065048579257</v>
       </c>
     </row>
     <row r="20">
@@ -916,25 +906,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06318359958078527</v>
+        <v>0.06575380948743922</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008349573417436635</v>
+        <v>0.008779186937611547</v>
       </c>
       <c r="D20" t="n">
-        <v>10.60910993858327</v>
+        <v>10.60119039919291</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0457045144083684</v>
+        <v>0.0454350173039485</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04680612303633321</v>
+        <v>0.04853220242406418</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07956107612523734</v>
+        <v>0.08297541655081425</v>
       </c>
       <c r="H20" t="n">
-        <v>0.241291641464431</v>
+        <v>0.1785002956066908</v>
       </c>
     </row>
     <row r="21">
@@ -944,25 +934,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06540266621058387</v>
+        <v>0.06845930811803592</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008242109123242105</v>
+        <v>0.009017170268084507</v>
       </c>
       <c r="D21" t="n">
-        <v>11.15184154029778</v>
+        <v>11.11654896095957</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04606023555957348</v>
+        <v>0.04765362754886252</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0492355127986603</v>
+        <v>0.0507228984519586</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08156981962250735</v>
+        <v>0.08619571778411324</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2435107080942296</v>
+        <v>0.1812057942372876</v>
       </c>
     </row>
     <row r="22">
@@ -972,25 +962,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06480481089007854</v>
+        <v>0.06723363870094134</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008117715446271972</v>
+        <v>0.008570173494798092</v>
       </c>
       <c r="D22" t="n">
-        <v>10.73108431423214</v>
+        <v>10.64023457573836</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04299308781163142</v>
+        <v>0.04404701339746033</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04888623061427688</v>
+        <v>0.05042658461121194</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08072339116588038</v>
+        <v>0.08404069279067078</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2429128527737243</v>
+        <v>0.179980124820193</v>
       </c>
     </row>
     <row r="23">
@@ -1000,25 +990,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06688105417943029</v>
+        <v>0.0709451441382204</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008040479397295972</v>
+        <v>0.009136867550119877</v>
       </c>
       <c r="D23" t="n">
-        <v>10.89585321444989</v>
+        <v>10.86079618772808</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04366054188670174</v>
+        <v>0.04601868827903455</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05111422168637231</v>
+        <v>0.05296322388597911</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08264788667248829</v>
+        <v>0.08892706439046179</v>
       </c>
       <c r="H23" t="n">
-        <v>0.244989096063076</v>
+        <v>0.183691630257472</v>
       </c>
     </row>
     <row r="24">
@@ -1028,25 +1018,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0671930565207324</v>
+        <v>0.06880958640594251</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007994162930204367</v>
+        <v>0.008419400757893004</v>
       </c>
       <c r="D24" t="n">
-        <v>11.06730247078105</v>
+        <v>10.97351591077867</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04819945046632091</v>
+        <v>0.04762091744852344</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05151762983935251</v>
+        <v>0.05228936199531305</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08286848320211231</v>
+        <v>0.08532981081657202</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2453010984043781</v>
+        <v>0.1815560725251941</v>
       </c>
     </row>
     <row r="25">
@@ -1056,25 +1046,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06766418657512853</v>
+        <v>0.07205723425062011</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008066866918895719</v>
+        <v>0.009293694449334101</v>
       </c>
       <c r="D25" t="n">
-        <v>11.28300119677329</v>
+        <v>11.22572366810779</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05400017741185485</v>
+        <v>0.05517921973289089</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05184575965287761</v>
+        <v>0.05373720482041149</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08348261349737936</v>
+        <v>0.09037726368082857</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2457722284587742</v>
+        <v>0.1848037203698717</v>
       </c>
     </row>
     <row r="26">
@@ -1084,25 +1074,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06787184014118362</v>
+        <v>0.07028253204454092</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00802816287316694</v>
+        <v>0.008480875819898617</v>
       </c>
       <c r="D26" t="n">
-        <v>11.28592197552466</v>
+        <v>11.25509295538604</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06390932774373993</v>
+        <v>0.06387091180657176</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05213118582920688</v>
+        <v>0.05365321403214315</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08361249445316037</v>
+        <v>0.08691185005693863</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2459798820248293</v>
+        <v>0.1830290181637926</v>
       </c>
     </row>
     <row r="27">
@@ -1112,25 +1102,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07012267100642065</v>
+        <v>0.07370065546307279</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008220612803157121</v>
+        <v>0.008935302678955991</v>
       </c>
       <c r="D27" t="n">
-        <v>10.92008090934375</v>
+        <v>10.84867078324668</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05820567906761343</v>
+        <v>0.06086329690069334</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05399834283165762</v>
+        <v>0.05615715177024259</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08624699918118366</v>
+        <v>0.09124415915590282</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2482307128900664</v>
+        <v>0.1864471415823244</v>
       </c>
     </row>
     <row r="28">
@@ -1140,25 +1130,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.06874256131569685</v>
+        <v>0.07264075851552446</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007984589053197041</v>
+        <v>0.008723775816604214</v>
       </c>
       <c r="D28" t="n">
-        <v>10.88201960765499</v>
+        <v>10.75418622437872</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08593764102250959</v>
+        <v>0.08402750342740545</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0530854215489846</v>
+        <v>0.05551770485459395</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08439970108240917</v>
+        <v>0.08976381217645463</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2468506031993425</v>
+        <v>0.1853872446347761</v>
       </c>
     </row>
     <row r="29">
@@ -1168,25 +1158,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004286810191026556</v>
+        <v>0.003941038007569537</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0006632997541790553</v>
+        <v>0.0014940422368962</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1803182960155422</v>
+        <v>-0.7128851805879993</v>
       </c>
       <c r="E29" t="n">
-        <v>2.705566939553045e-05</v>
+        <v>8.332458489466942e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00297993718311561</v>
+        <v>0.0009777423951667277</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005593683198937594</v>
+        <v>0.006904333619972322</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1823948520746723</v>
+        <v>0.1166875241268212</v>
       </c>
     </row>
   </sheetData>
